--- a/Excel Files/Scenario 10/S10-TC164-OutboundInstruction.xlsx
+++ b/Excel Files/Scenario 10/S10-TC164-OutboundInstruction.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>#{Label_Title}</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -269,7 +269,7 @@
     <t>MY-PNA-DC</t>
   </si>
   <si>
-    <t>Z482151BZD90</t>
+    <t>Z582151BZD90</t>
   </si>
   <si>
     <t>PC</t>
@@ -278,19 +278,19 @@
     <t>MY-PNA-CUS</t>
   </si>
   <si>
-    <t>sZ4L224-2310003</t>
+    <t>sZ5L225-2311001</t>
   </si>
   <si>
     <t>MY-PNA-BU</t>
   </si>
   <si>
-    <t>Z482151-BZD90</t>
+    <t>Z582151-BZD90</t>
   </si>
   <si>
     <t>Ref No：L2-WIRE FR DOOR RH</t>
   </si>
   <si>
-    <t>cZ4L224-2310002</t>
+    <t>cZ5L225-2311001</t>
   </si>
   <si>
     <t>L2-WIRE FR DOOR RH</t>
@@ -299,10 +299,10 @@
     <t>Back1</t>
   </si>
   <si>
-    <t>Z482151BZK50</t>
-  </si>
-  <si>
-    <t>Z482151-BZK50</t>
+    <t>Z582151BZK50</t>
+  </si>
+  <si>
+    <t>Z582151-BZK50</t>
   </si>
   <si>
     <t>Ref No：L2-HARNESS FLOOR</t>
@@ -314,34 +314,16 @@
     <t>Back2</t>
   </si>
   <si>
-    <t>Y182151BZE00</t>
-  </si>
-  <si>
-    <t>sY1L211-2310003</t>
-  </si>
-  <si>
-    <t>Y182151-BZE00</t>
-  </si>
-  <si>
-    <t>cY1L211-2310002</t>
-  </si>
-  <si>
-    <t>Y182151BZK50</t>
-  </si>
-  <si>
-    <t>Y182151-BZK50</t>
-  </si>
-  <si>
-    <t>Z482151BZE00</t>
-  </si>
-  <si>
-    <t>sZ4L224-2310001</t>
-  </si>
-  <si>
-    <t>Z482151-BZE00</t>
-  </si>
-  <si>
-    <t>cZ4L224-2310001</t>
+    <t>Z582151BZE00</t>
+  </si>
+  <si>
+    <t>sZ5L225-2311003</t>
+  </si>
+  <si>
+    <t>Z582151-BZE00</t>
+  </si>
+  <si>
+    <t>cZ5L225-2311002</t>
   </si>
 </sst>
 </file>
@@ -1280,11 +1262,11 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>100.0</v>
@@ -1296,7 +1278,7 @@
         <v>100.0</v>
       </c>
       <c r="M5" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="N5" s="32"/>
       <c r="O5" s="28" t="s">
@@ -1350,11 +1332,11 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="J6" s="11" t="n">
         <v>40.0</v>
@@ -1366,7 +1348,7 @@
         <v>40.0</v>
       </c>
       <c r="M6" s="30" t="n">
-        <v>45225.0</v>
+        <v>45233.0</v>
       </c>
       <c r="N6" s="32"/>
       <c r="O6" s="28" t="s">
@@ -1420,11 +1402,11 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="30" t="n">
-        <v>45228.0</v>
+        <v>45260.0</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="30" t="n">
-        <v>45231.0</v>
+        <v>45233.0</v>
       </c>
       <c r="J7" s="11" t="n">
         <v>100.0</v>
@@ -1436,7 +1418,7 @@
         <v>100.0</v>
       </c>
       <c r="M7" s="30" t="n">
-        <v>45228.0</v>
+        <v>45260.0</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="28" t="s">
@@ -1483,18 +1465,18 @@
         <v>72</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="30" t="n">
-        <v>45228.0</v>
+        <v>45260.0</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="30" t="n">
-        <v>45231.0</v>
+        <v>45233.0</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>60.0</v>
@@ -1506,7 +1488,7 @@
         <v>60.0</v>
       </c>
       <c r="M8" s="30" t="n">
-        <v>45228.0</v>
+        <v>45260.0</v>
       </c>
       <c r="N8" s="32"/>
       <c r="O8" s="28" t="s">
@@ -1516,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>85</v>
@@ -1533,7 +1515,7 @@
         <v>75</v>
       </c>
       <c r="X8" s="27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="27" t="s">
         <v>86</v>
@@ -1542,146 +1524,6 @@
         <v>87</v>
       </c>
       <c r="AA8" s="11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="30" t="n">
-        <v>45230.0</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30" t="n">
-        <v>45225.0</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M9" s="30" t="n">
-        <v>45230.0</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA9" s="11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="30" t="n">
-        <v>45230.0</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30" t="n">
-        <v>45225.0</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="11" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="M10" s="30" t="n">
-        <v>45230.0</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" s="11" t="n">
         <v>10.0</v>
       </c>
     </row>
